--- a/biology/Zoologie/Dascillus_cervinus/Dascillus_cervinus.xlsx
+++ b/biology/Zoologie/Dascillus_cervinus/Dascillus_cervinus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dascillus cervinus est une espèce d'insectes coléoptères de la famille des Dascillidae.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Corps ovale-allongé, long de 11 à 12 mm, élytres à bords parallèles, les mâles couverts de soies grisâtres, brun-jaunâtre chez les femelles, le reste du corps noir.
 </t>
@@ -542,7 +556,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Europe, du Portugal à la Scandinavie et à la Russie. Présent en France, surtout dans des régions d'altitude.
 </t>
@@ -573,7 +589,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Vivent essentiellement dans des régions montagneuses, sur les fleurs au voisinage des ruisseaux ou dans les bois clairs humides. Les larves mangent les racines de plantes poussant dans des sols humides. Les adultes sont visibles de mai à juillet.
 Sur les autres projets Wikimedia :
